--- a/mfa/I_orientalis/run_files/Plim__D_0_18/data_expmt1.xlsx
+++ b/mfa/I_orientalis/run_files/Plim__D_0_18/data_expmt1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="253">
   <si>
     <t xml:space="preserve">fragment name</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t xml:space="preserve">BIOMASS.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_glc__D_e.f</t>
   </si>
   <si>
     <t xml:space="preserve">EX_c5sugal_e.f</t>
@@ -895,8 +898,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1808,10 +1811,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="1" sqref="A2:H34 A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1838,18 +1841,18 @@
         <v>0.18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0361541635931891</v>
+        <v>2.63220849575483</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.00361541635931891</v>
+        <v>0.405822532271567</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,10 +1860,10 @@
         <v>209</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>100</v>
+        <v>0.063657407407407</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.036154163593189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2207,7 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>241</v>
       </c>
@@ -2212,6 +2215,17 @@
         <v>100</v>
       </c>
       <c r="C36" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -2233,8 +2247,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:H34 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2244,33 +2258,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.5</v>
@@ -2279,7 +2293,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
